--- a/INTLINE/data/142/STANOR/old/07095 Index of production by Main Industrial Groupring.xlsx
+++ b/INTLINE/data/142/STANOR/old/07095 Index of production by Main Industrial Groupring.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="418">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="422">
   <x:si>
     <x:t>07095: Index of production (2005=100), by industry/main industrial grouping, contents and month</x:t>
   </x:si>
@@ -1165,6 +1165,15 @@
     <x:t>2021M10</x:t>
   </x:si>
   <x:si>
+    <x:t>2021M11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021M12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M01</x:t>
+  </x:si>
+  <x:si>
     <x:t>Intermediate goods</x:t>
   </x:si>
   <x:si>
@@ -1195,13 +1204,22 @@
     <x:t>The weights are value added at factor prices. The levels of aggregations refer to the Standard Industrial Classification SIC 2007.</x:t>
   </x:si>
   <x:si>
-    <x:t>Latest update:</x:t>
+    <x:t xml:space="preserve">Because of calculation errors for mining and quarrying for all months in 2021,  figures for mining and quarrying and overlying aggregates have been corrected 10th February 2022. 
+Following aggregates have been affected by this change:
+&lt;li&gt;Extraction, mining, manufacturing and electricity&lt;/li&gt; 
+&lt;li&gt;Manufacturing, mining and quarrying&lt;/li&gt; 
+&lt;li&gt;Mining and quarrying&lt;/li&gt; 
+&lt;li&gt;Intermediate goods&lt;/li&gt; 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Updated:</x:t>
   </x:si>
   <x:si>
     <x:t>Index of production. Seasonally adjusted:</x:t>
   </x:si>
   <x:si>
-    <x:t>20211207 08:00</x:t>
+    <x:t>20220307 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Index of production. Calendar adjusted:</x:t>
@@ -1660,23 +1678,21 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:NT90"/>
+  <x:dimension ref="A1:NW91"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="37.300625" style="0" customWidth="1"/>
-    <x:col min="3" max="384" width="10.040625" style="0" customWidth="1"/>
+    <x:col min="1" max="387" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:384">
+    <x:row r="1" spans="1:387">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:384">
+    <x:row r="3" spans="1:387">
       <x:c r="C3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -2823,13 +2839,22 @@
       <x:c r="NT3" s="2" t="s">
         <x:v>382</x:v>
       </x:c>
+      <x:c r="NU3" s="2" t="s">
+        <x:v>383</x:v>
+      </x:c>
+      <x:c r="NV3" s="2" t="s">
+        <x:v>384</x:v>
+      </x:c>
+      <x:c r="NW3" s="2" t="s">
+        <x:v>385</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:384">
+    <x:row r="4" spans="1:387">
       <x:c r="A4" s="2" t="s">
-        <x:v>383</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>384</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C4" s="3" t="n">
         <x:v>82.5</x:v>
@@ -3879,7 +3904,7 @@
         <x:v>108.2</x:v>
       </x:c>
       <x:c r="MN4" s="3" t="n">
-        <x:v>109.1</x:v>
+        <x:v>109.2</x:v>
       </x:c>
       <x:c r="MO4" s="3" t="n">
         <x:v>108.4</x:v>
@@ -3900,7 +3925,7 @@
         <x:v>109.9</x:v>
       </x:c>
       <x:c r="MU4" s="3" t="n">
-        <x:v>111.3</x:v>
+        <x:v>111.2</x:v>
       </x:c>
       <x:c r="MV4" s="3" t="n">
         <x:v>110.9</x:v>
@@ -3912,10 +3937,10 @@
         <x:v>111.3</x:v>
       </x:c>
       <x:c r="MY4" s="3" t="n">
-        <x:v>110.3</x:v>
+        <x:v>110.2</x:v>
       </x:c>
       <x:c r="MZ4" s="3" t="n">
-        <x:v>113.6</x:v>
+        <x:v>113.7</x:v>
       </x:c>
       <x:c r="NA4" s="3" t="n">
         <x:v>108.2</x:v>
@@ -3942,45 +3967,54 @@
         <x:v>109.7</x:v>
       </x:c>
       <x:c r="NI4" s="3" t="n">
-        <x:v>111.1</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="NJ4" s="3" t="n">
         <x:v>112.4</x:v>
       </x:c>
       <x:c r="NK4" s="3" t="n">
-        <x:v>108.8</x:v>
+        <x:v>109.6</x:v>
       </x:c>
       <x:c r="NL4" s="3" t="n">
-        <x:v>108.2</x:v>
+        <x:v>109.1</x:v>
       </x:c>
       <x:c r="NM4" s="3" t="n">
-        <x:v>106.1</x:v>
+        <x:v>107.2</x:v>
       </x:c>
       <x:c r="NN4" s="3" t="n">
-        <x:v>115.7</x:v>
+        <x:v>116.7</x:v>
       </x:c>
       <x:c r="NO4" s="3" t="n">
-        <x:v>109.1</x:v>
+        <x:v>110.2</x:v>
       </x:c>
       <x:c r="NP4" s="3" t="n">
-        <x:v>112</x:v>
+        <x:v>113.2</x:v>
       </x:c>
       <x:c r="NQ4" s="3" t="n">
-        <x:v>109.8</x:v>
+        <x:v>111.1</x:v>
       </x:c>
       <x:c r="NR4" s="3" t="n">
-        <x:v>108</x:v>
+        <x:v>109.3</x:v>
       </x:c>
       <x:c r="NS4" s="3" t="n">
-        <x:v>110.5</x:v>
+        <x:v>111.8</x:v>
       </x:c>
       <x:c r="NT4" s="3" t="n">
-        <x:v>112.2</x:v>
+        <x:v>113.4</x:v>
+      </x:c>
+      <x:c r="NU4" s="3" t="n">
+        <x:v>113.1</x:v>
+      </x:c>
+      <x:c r="NV4" s="3" t="n">
+        <x:v>114.3</x:v>
+      </x:c>
+      <x:c r="NW4" s="3" t="n">
+        <x:v>117</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:384">
+    <x:row r="5" spans="1:387">
       <x:c r="B5" s="2" t="s">
-        <x:v>385</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="C5" s="3" t="n">
         <x:v>82.9</x:v>
@@ -5033,16 +5067,16 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="MO5" s="3" t="n">
-        <x:v>108.9</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="MP5" s="3" t="n">
-        <x:v>104.5</x:v>
+        <x:v>104.4</x:v>
       </x:c>
       <x:c r="MQ5" s="3" t="n">
         <x:v>119.1</x:v>
       </x:c>
       <x:c r="MR5" s="3" t="n">
-        <x:v>113.9</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="MS5" s="3" t="n">
         <x:v>93.1</x:v>
@@ -5069,10 +5103,10 @@
         <x:v>108.5</x:v>
       </x:c>
       <x:c r="NA5" s="3" t="n">
-        <x:v>108.9</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="NB5" s="3" t="n">
-        <x:v>101.8</x:v>
+        <x:v>101.7</x:v>
       </x:c>
       <x:c r="NC5" s="3" t="n">
         <x:v>107.9</x:v>
@@ -5099,39 +5133,48 @@
         <x:v>101.9</x:v>
       </x:c>
       <x:c r="NK5" s="3" t="n">
-        <x:v>105.9</x:v>
+        <x:v>106.8</x:v>
       </x:c>
       <x:c r="NL5" s="3" t="n">
-        <x:v>103.6</x:v>
+        <x:v>104.3</x:v>
       </x:c>
       <x:c r="NM5" s="3" t="n">
-        <x:v>106.9</x:v>
+        <x:v>108.2</x:v>
       </x:c>
       <x:c r="NN5" s="3" t="n">
-        <x:v>110.8</x:v>
+        <x:v>111.7</x:v>
       </x:c>
       <x:c r="NO5" s="3" t="n">
-        <x:v>117.8</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="NP5" s="3" t="n">
-        <x:v>118.3</x:v>
+        <x:v>119.6</x:v>
       </x:c>
       <x:c r="NQ5" s="3" t="n">
-        <x:v>91.2</x:v>
+        <x:v>92.2</x:v>
       </x:c>
       <x:c r="NR5" s="3" t="n">
-        <x:v>111.8</x:v>
+        <x:v>113.2</x:v>
       </x:c>
       <x:c r="NS5" s="3" t="n">
-        <x:v>118.7</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="NT5" s="3" t="n">
-        <x:v>121.4</x:v>
+        <x:v>122.6</x:v>
+      </x:c>
+      <x:c r="NU5" s="3" t="n">
+        <x:v>117.4</x:v>
+      </x:c>
+      <x:c r="NV5" s="3" t="n">
+        <x:v>103.5</x:v>
+      </x:c>
+      <x:c r="NW5" s="3" t="n">
+        <x:v>114.1</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:384">
+    <x:row r="6" spans="1:387">
       <x:c r="B6" s="2" t="s">
-        <x:v>386</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="C6" s="3" t="n">
         <x:v>84.6</x:v>
@@ -6250,42 +6293,51 @@
         <x:v>101.6</x:v>
       </x:c>
       <x:c r="NK6" s="3" t="n">
-        <x:v>104.4</x:v>
+        <x:v>105.3</x:v>
       </x:c>
       <x:c r="NL6" s="3" t="n">
-        <x:v>103.6</x:v>
+        <x:v>104.3</x:v>
       </x:c>
       <x:c r="NM6" s="3" t="n">
-        <x:v>112</x:v>
+        <x:v>113.2</x:v>
       </x:c>
       <x:c r="NN6" s="3" t="n">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="NO6" s="3" t="n">
-        <x:v>108.4</x:v>
+        <x:v>109.5</x:v>
       </x:c>
       <x:c r="NP6" s="3" t="n">
-        <x:v>119.6</x:v>
+        <x:v>120.9</x:v>
       </x:c>
       <x:c r="NQ6" s="3" t="n">
-        <x:v>91.4</x:v>
+        <x:v>92.4</x:v>
       </x:c>
       <x:c r="NR6" s="3" t="n">
-        <x:v>111.4</x:v>
+        <x:v>112.8</x:v>
       </x:c>
       <x:c r="NS6" s="3" t="n">
-        <x:v>120.8</x:v>
+        <x:v>122.2</x:v>
       </x:c>
       <x:c r="NT6" s="3" t="n">
-        <x:v>117.9</x:v>
+        <x:v>119.1</x:v>
+      </x:c>
+      <x:c r="NU6" s="3" t="n">
+        <x:v>118.7</x:v>
+      </x:c>
+      <x:c r="NV6" s="3" t="n">
+        <x:v>103.9</x:v>
+      </x:c>
+      <x:c r="NW6" s="3" t="n">
+        <x:v>113.7</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:384">
+    <x:row r="7" spans="1:387">
       <x:c r="A7" s="2" t="s">
+        <x:v>390</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
         <x:v>387</x:v>
-      </x:c>
-      <x:c r="B7" s="2" t="s">
-        <x:v>384</x:v>
       </x:c>
       <x:c r="C7" s="3" t="n">
         <x:v>79.6</x:v>
@@ -7341,7 +7393,7 @@
         <x:v>171.7</x:v>
       </x:c>
       <x:c r="MP7" s="3" t="n">
-        <x:v>175.7</x:v>
+        <x:v>175.8</x:v>
       </x:c>
       <x:c r="MQ7" s="3" t="n">
         <x:v>178.5</x:v>
@@ -7395,7 +7447,7 @@
         <x:v>162.9</x:v>
       </x:c>
       <x:c r="NH7" s="3" t="n">
-        <x:v>167.6</x:v>
+        <x:v>167.7</x:v>
       </x:c>
       <x:c r="NI7" s="3" t="n">
         <x:v>168</x:v>
@@ -7404,7 +7456,7 @@
         <x:v>161.1</x:v>
       </x:c>
       <x:c r="NK7" s="3" t="n">
-        <x:v>171.9</x:v>
+        <x:v>171.8</x:v>
       </x:c>
       <x:c r="NL7" s="3" t="n">
         <x:v>172</x:v>
@@ -7433,10 +7485,19 @@
       <x:c r="NT7" s="3" t="n">
         <x:v>168.9</x:v>
       </x:c>
+      <x:c r="NU7" s="3" t="n">
+        <x:v>165.4</x:v>
+      </x:c>
+      <x:c r="NV7" s="3" t="n">
+        <x:v>163.1</x:v>
+      </x:c>
+      <x:c r="NW7" s="3" t="n">
+        <x:v>170.7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="8" spans="1:384">
+    <x:row r="8" spans="1:387">
       <x:c r="B8" s="2" t="s">
-        <x:v>385</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="C8" s="3" t="n">
         <x:v>84.8</x:v>
@@ -8489,16 +8550,16 @@
         <x:v>173.3</x:v>
       </x:c>
       <x:c r="MO8" s="3" t="n">
-        <x:v>181.4</x:v>
+        <x:v>181.7</x:v>
       </x:c>
       <x:c r="MP8" s="3" t="n">
-        <x:v>168.7</x:v>
+        <x:v>168.4</x:v>
       </x:c>
       <x:c r="MQ8" s="3" t="n">
-        <x:v>190.5</x:v>
+        <x:v>190.6</x:v>
       </x:c>
       <x:c r="MR8" s="3" t="n">
-        <x:v>185.2</x:v>
+        <x:v>185.1</x:v>
       </x:c>
       <x:c r="MS8" s="3" t="n">
         <x:v>112.6</x:v>
@@ -8516,7 +8577,7 @@
         <x:v>197.5</x:v>
       </x:c>
       <x:c r="MX8" s="3" t="n">
-        <x:v>167.2</x:v>
+        <x:v>167.1</x:v>
       </x:c>
       <x:c r="MY8" s="3" t="n">
         <x:v>191.2</x:v>
@@ -8525,16 +8586,16 @@
         <x:v>181.9</x:v>
       </x:c>
       <x:c r="NA8" s="3" t="n">
-        <x:v>172.7</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="NB8" s="3" t="n">
-        <x:v>151.8</x:v>
+        <x:v>151.5</x:v>
       </x:c>
       <x:c r="NC8" s="3" t="n">
-        <x:v>169.2</x:v>
+        <x:v>169.3</x:v>
       </x:c>
       <x:c r="ND8" s="3" t="n">
-        <x:v>163</x:v>
+        <x:v>162.9</x:v>
       </x:c>
       <x:c r="NE8" s="3" t="n">
         <x:v>94.7</x:v>
@@ -8561,16 +8622,16 @@
         <x:v>173.5</x:v>
       </x:c>
       <x:c r="NM8" s="3" t="n">
-        <x:v>180.2</x:v>
+        <x:v>180.5</x:v>
       </x:c>
       <x:c r="NN8" s="3" t="n">
-        <x:v>157.5</x:v>
+        <x:v>157.2</x:v>
       </x:c>
       <x:c r="NO8" s="3" t="n">
-        <x:v>179.3</x:v>
+        <x:v>179.4</x:v>
       </x:c>
       <x:c r="NP8" s="3" t="n">
-        <x:v>174.3</x:v>
+        <x:v>174.2</x:v>
       </x:c>
       <x:c r="NQ8" s="3" t="n">
         <x:v>104.2</x:v>
@@ -8584,10 +8645,19 @@
       <x:c r="NT8" s="3" t="n">
         <x:v>183.9</x:v>
       </x:c>
+      <x:c r="NU8" s="3" t="n">
+        <x:v>180.7</x:v>
+      </x:c>
+      <x:c r="NV8" s="3" t="n">
+        <x:v>150.9</x:v>
+      </x:c>
+      <x:c r="NW8" s="3" t="n">
+        <x:v>181.1</x:v>
+      </x:c>
     </x:row>
-    <x:row r="9" spans="1:384">
+    <x:row r="9" spans="1:387">
       <x:c r="B9" s="2" t="s">
-        <x:v>386</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="C9" s="3" t="n">
         <x:v>84.8</x:v>
@@ -9735,13 +9805,22 @@
       <x:c r="NT9" s="3" t="n">
         <x:v>176.5</x:v>
       </x:c>
+      <x:c r="NU9" s="3" t="n">
+        <x:v>184.3</x:v>
+      </x:c>
+      <x:c r="NV9" s="3" t="n">
+        <x:v>154.9</x:v>
+      </x:c>
+      <x:c r="NW9" s="3" t="n">
+        <x:v>173.4</x:v>
+      </x:c>
     </x:row>
-    <x:row r="10" spans="1:384">
+    <x:row r="10" spans="1:387">
       <x:c r="A10" s="2" t="s">
-        <x:v>388</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>384</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C10" s="3" t="n">
         <x:v>98.9</x:v>
@@ -10809,31 +10888,31 @@
         <x:v>37.4</x:v>
       </x:c>
       <x:c r="MT10" s="3" t="n">
-        <x:v>40</x:v>
+        <x:v>39.8</x:v>
       </x:c>
       <x:c r="MU10" s="3" t="n">
-        <x:v>42.9</x:v>
+        <x:v>43.1</x:v>
       </x:c>
       <x:c r="MV10" s="3" t="n">
-        <x:v>42.4</x:v>
+        <x:v>42.6</x:v>
       </x:c>
       <x:c r="MW10" s="3" t="n">
         <x:v>39.3</x:v>
       </x:c>
       <x:c r="MX10" s="3" t="n">
-        <x:v>40.6</x:v>
+        <x:v>40.5</x:v>
       </x:c>
       <x:c r="MY10" s="3" t="n">
-        <x:v>39.9</x:v>
+        <x:v>39.8</x:v>
       </x:c>
       <x:c r="MZ10" s="3" t="n">
-        <x:v>39.4</x:v>
+        <x:v>39.3</x:v>
       </x:c>
       <x:c r="NA10" s="3" t="n">
         <x:v>37.9</x:v>
       </x:c>
       <x:c r="NB10" s="3" t="n">
-        <x:v>27.4</x:v>
+        <x:v>27.3</x:v>
       </x:c>
       <x:c r="NC10" s="3" t="n">
         <x:v>31.3</x:v>
@@ -10845,54 +10924,63 @@
         <x:v>43.3</x:v>
       </x:c>
       <x:c r="NF10" s="3" t="n">
-        <x:v>45.5</x:v>
+        <x:v>45.4</x:v>
       </x:c>
       <x:c r="NG10" s="3" t="n">
-        <x:v>47.1</x:v>
+        <x:v>47.4</x:v>
       </x:c>
       <x:c r="NH10" s="3" t="n">
-        <x:v>44.5</x:v>
+        <x:v>44.6</x:v>
       </x:c>
       <x:c r="NI10" s="3" t="n">
         <x:v>45.7</x:v>
       </x:c>
       <x:c r="NJ10" s="3" t="n">
-        <x:v>47.3</x:v>
+        <x:v>47.1</x:v>
       </x:c>
       <x:c r="NK10" s="3" t="n">
         <x:v>45.8</x:v>
       </x:c>
       <x:c r="NL10" s="3" t="n">
-        <x:v>46.7</x:v>
+        <x:v>46.6</x:v>
       </x:c>
       <x:c r="NM10" s="3" t="n">
-        <x:v>48</x:v>
+        <x:v>47.9</x:v>
       </x:c>
       <x:c r="NN10" s="3" t="n">
-        <x:v>45</x:v>
+        <x:v>44.9</x:v>
       </x:c>
       <x:c r="NO10" s="3" t="n">
-        <x:v>46</x:v>
+        <x:v>45.9</x:v>
       </x:c>
       <x:c r="NP10" s="3" t="n">
-        <x:v>51.7</x:v>
+        <x:v>51.8</x:v>
       </x:c>
       <x:c r="NQ10" s="3" t="n">
-        <x:v>47.2</x:v>
+        <x:v>47.3</x:v>
       </x:c>
       <x:c r="NR10" s="3" t="n">
-        <x:v>46.2</x:v>
+        <x:v>46.1</x:v>
       </x:c>
       <x:c r="NS10" s="3" t="n">
-        <x:v>47.9</x:v>
+        <x:v>48.2</x:v>
       </x:c>
       <x:c r="NT10" s="3" t="n">
-        <x:v>45.8</x:v>
+        <x:v>45.9</x:v>
+      </x:c>
+      <x:c r="NU10" s="3" t="n">
+        <x:v>48.6</x:v>
+      </x:c>
+      <x:c r="NV10" s="3" t="n">
+        <x:v>44.8</x:v>
+      </x:c>
+      <x:c r="NW10" s="3" t="n">
+        <x:v>43.6</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:384">
+    <x:row r="11" spans="1:387">
       <x:c r="B11" s="2" t="s">
-        <x:v>385</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="C11" s="3" t="n">
         <x:v>102.7</x:v>
@@ -11945,10 +12033,10 @@
         <x:v>47.1</x:v>
       </x:c>
       <x:c r="MO11" s="3" t="n">
-        <x:v>44.9</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="MP11" s="3" t="n">
-        <x:v>42.9</x:v>
+        <x:v>42.8</x:v>
       </x:c>
       <x:c r="MQ11" s="3" t="n">
         <x:v>45.5</x:v>
@@ -11981,7 +12069,7 @@
         <x:v>41.3</x:v>
       </x:c>
       <x:c r="NA11" s="3" t="n">
-        <x:v>38.8</x:v>
+        <x:v>38.9</x:v>
       </x:c>
       <x:c r="NB11" s="3" t="n">
         <x:v>26.1</x:v>
@@ -12017,10 +12105,10 @@
         <x:v>48.9</x:v>
       </x:c>
       <x:c r="NM11" s="3" t="n">
-        <x:v>49.1</x:v>
+        <x:v>49.2</x:v>
       </x:c>
       <x:c r="NN11" s="3" t="n">
-        <x:v>43.1</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="NO11" s="3" t="n">
         <x:v>46.8</x:v>
@@ -12040,10 +12128,19 @@
       <x:c r="NT11" s="3" t="n">
         <x:v>49.5</x:v>
       </x:c>
+      <x:c r="NU11" s="3" t="n">
+        <x:v>55.6</x:v>
+      </x:c>
+      <x:c r="NV11" s="3" t="n">
+        <x:v>45.7</x:v>
+      </x:c>
+      <x:c r="NW11" s="3" t="n">
+        <x:v>49.7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="12" spans="1:384">
+    <x:row r="12" spans="1:387">
       <x:c r="B12" s="2" t="s">
-        <x:v>386</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="C12" s="3" t="n">
         <x:v>103.9</x:v>
@@ -13191,13 +13288,22 @@
       <x:c r="NT12" s="3" t="n">
         <x:v>47.9</x:v>
       </x:c>
+      <x:c r="NU12" s="3" t="n">
+        <x:v>56.5</x:v>
+      </x:c>
+      <x:c r="NV12" s="3" t="n">
+        <x:v>42.9</x:v>
+      </x:c>
+      <x:c r="NW12" s="3" t="n">
+        <x:v>46.6</x:v>
+      </x:c>
     </x:row>
-    <x:row r="13" spans="1:384">
+    <x:row r="13" spans="1:387">
       <x:c r="A13" s="2" t="s">
-        <x:v>389</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>384</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C13" s="3" t="n">
         <x:v>99.5</x:v>
@@ -14271,10 +14377,10 @@
         <x:v>104.8</x:v>
       </x:c>
       <x:c r="MV13" s="3" t="n">
-        <x:v>107.9</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="MW13" s="3" t="n">
-        <x:v>105.8</x:v>
+        <x:v>105.9</x:v>
       </x:c>
       <x:c r="MX13" s="3" t="n">
         <x:v>104</x:v>
@@ -14313,7 +14419,7 @@
         <x:v>102.2</x:v>
       </x:c>
       <x:c r="NJ13" s="3" t="n">
-        <x:v>107.7</x:v>
+        <x:v>107.8</x:v>
       </x:c>
       <x:c r="NK13" s="3" t="n">
         <x:v>112.6</x:v>
@@ -14337,7 +14443,7 @@
         <x:v>110.7</x:v>
       </x:c>
       <x:c r="NR13" s="3" t="n">
-        <x:v>112.8</x:v>
+        <x:v>112.7</x:v>
       </x:c>
       <x:c r="NS13" s="3" t="n">
         <x:v>112.9</x:v>
@@ -14345,10 +14451,19 @@
       <x:c r="NT13" s="3" t="n">
         <x:v>103.1</x:v>
       </x:c>
+      <x:c r="NU13" s="3" t="n">
+        <x:v>105.1</x:v>
+      </x:c>
+      <x:c r="NV13" s="3" t="n">
+        <x:v>105.3</x:v>
+      </x:c>
+      <x:c r="NW13" s="3" t="n">
+        <x:v>105</x:v>
+      </x:c>
     </x:row>
-    <x:row r="14" spans="1:384">
+    <x:row r="14" spans="1:387">
       <x:c r="B14" s="2" t="s">
-        <x:v>385</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="C14" s="3" t="n">
         <x:v>94.3</x:v>
@@ -15401,10 +15516,10 @@
         <x:v>100.6</x:v>
       </x:c>
       <x:c r="MO14" s="3" t="n">
-        <x:v>105.5</x:v>
+        <x:v>105.6</x:v>
       </x:c>
       <x:c r="MP14" s="3" t="n">
-        <x:v>101.1</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="MQ14" s="3" t="n">
         <x:v>104.3</x:v>
@@ -15437,13 +15552,13 @@
         <x:v>100.8</x:v>
       </x:c>
       <x:c r="NA14" s="3" t="n">
-        <x:v>109.8</x:v>
+        <x:v>109.9</x:v>
       </x:c>
       <x:c r="NB14" s="3" t="n">
-        <x:v>101.5</x:v>
+        <x:v>101.4</x:v>
       </x:c>
       <x:c r="NC14" s="3" t="n">
-        <x:v>99.9</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="ND14" s="3" t="n">
         <x:v>99.1</x:v>
@@ -15473,13 +15588,13 @@
         <x:v>105.2</x:v>
       </x:c>
       <x:c r="NM14" s="3" t="n">
-        <x:v>113.7</x:v>
+        <x:v>113.8</x:v>
       </x:c>
       <x:c r="NN14" s="3" t="n">
-        <x:v>105.9</x:v>
+        <x:v>105.8</x:v>
       </x:c>
       <x:c r="NO14" s="3" t="n">
-        <x:v>108.8</x:v>
+        <x:v>108.9</x:v>
       </x:c>
       <x:c r="NP14" s="3" t="n">
         <x:v>110.8</x:v>
@@ -15496,10 +15611,19 @@
       <x:c r="NT14" s="3" t="n">
         <x:v>115.1</x:v>
       </x:c>
+      <x:c r="NU14" s="3" t="n">
+        <x:v>114.6</x:v>
+      </x:c>
+      <x:c r="NV14" s="3" t="n">
+        <x:v>101.4</x:v>
+      </x:c>
+      <x:c r="NW14" s="3" t="n">
+        <x:v>104.9</x:v>
+      </x:c>
     </x:row>
-    <x:row r="15" spans="1:384">
+    <x:row r="15" spans="1:387">
       <x:c r="B15" s="2" t="s">
-        <x:v>386</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="C15" s="3" t="n">
         <x:v>95.9</x:v>
@@ -16647,13 +16771,22 @@
       <x:c r="NT15" s="3" t="n">
         <x:v>111</x:v>
       </x:c>
+      <x:c r="NU15" s="3" t="n">
+        <x:v>116.7</x:v>
+      </x:c>
+      <x:c r="NV15" s="3" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="NW15" s="3" t="n">
+        <x:v>101.1</x:v>
+      </x:c>
     </x:row>
-    <x:row r="16" spans="1:384">
+    <x:row r="16" spans="1:387">
       <x:c r="A16" s="2" t="s">
-        <x:v>390</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>384</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C16" s="3" t="n">
         <x:v>99.4</x:v>
@@ -17757,10 +17890,10 @@
         <x:v>99.8</x:v>
       </x:c>
       <x:c r="NF16" s="3" t="n">
-        <x:v>94.9</x:v>
+        <x:v>94.8</x:v>
       </x:c>
       <x:c r="NG16" s="3" t="n">
-        <x:v>96.6</x:v>
+        <x:v>96.5</x:v>
       </x:c>
       <x:c r="NH16" s="3" t="n">
         <x:v>96.6</x:v>
@@ -17769,19 +17902,19 @@
         <x:v>94.1</x:v>
       </x:c>
       <x:c r="NJ16" s="3" t="n">
-        <x:v>99.5</x:v>
+        <x:v>99.6</x:v>
       </x:c>
       <x:c r="NK16" s="3" t="n">
         <x:v>103.3</x:v>
       </x:c>
       <x:c r="NL16" s="3" t="n">
-        <x:v>100.8</x:v>
+        <x:v>100.7</x:v>
       </x:c>
       <x:c r="NM16" s="3" t="n">
         <x:v>102</x:v>
       </x:c>
       <x:c r="NN16" s="3" t="n">
-        <x:v>101.5</x:v>
+        <x:v>101.4</x:v>
       </x:c>
       <x:c r="NO16" s="3" t="n">
         <x:v>101.2</x:v>
@@ -17796,15 +17929,24 @@
         <x:v>103.1</x:v>
       </x:c>
       <x:c r="NS16" s="3" t="n">
-        <x:v>103.8</x:v>
+        <x:v>103.7</x:v>
       </x:c>
       <x:c r="NT16" s="3" t="n">
         <x:v>95.6</x:v>
       </x:c>
+      <x:c r="NU16" s="3" t="n">
+        <x:v>97.2</x:v>
+      </x:c>
+      <x:c r="NV16" s="3" t="n">
+        <x:v>97.1</x:v>
+      </x:c>
+      <x:c r="NW16" s="3" t="n">
+        <x:v>96.3</x:v>
+      </x:c>
     </x:row>
-    <x:row r="17" spans="1:384">
+    <x:row r="17" spans="1:387">
       <x:c r="B17" s="2" t="s">
-        <x:v>385</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="C17" s="3" t="n">
         <x:v>95.1</x:v>
@@ -18857,10 +18999,10 @@
         <x:v>93.4</x:v>
       </x:c>
       <x:c r="MO17" s="3" t="n">
-        <x:v>97.1</x:v>
+        <x:v>97.2</x:v>
       </x:c>
       <x:c r="MP17" s="3" t="n">
-        <x:v>93.1</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="MQ17" s="3" t="n">
         <x:v>95.8</x:v>
@@ -18893,13 +19035,13 @@
         <x:v>92.7</x:v>
       </x:c>
       <x:c r="NA17" s="3" t="n">
-        <x:v>99.3</x:v>
+        <x:v>99.4</x:v>
       </x:c>
       <x:c r="NB17" s="3" t="n">
-        <x:v>90.9</x:v>
+        <x:v>90.8</x:v>
       </x:c>
       <x:c r="NC17" s="3" t="n">
-        <x:v>90.1</x:v>
+        <x:v>90.2</x:v>
       </x:c>
       <x:c r="ND17" s="3" t="n">
         <x:v>91</x:v>
@@ -18929,16 +19071,16 @@
         <x:v>97.4</x:v>
       </x:c>
       <x:c r="NM17" s="3" t="n">
-        <x:v>104.8</x:v>
+        <x:v>104.9</x:v>
       </x:c>
       <x:c r="NN17" s="3" t="n">
-        <x:v>96.9</x:v>
+        <x:v>96.8</x:v>
       </x:c>
       <x:c r="NO17" s="3" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="NP17" s="3" t="n">
-        <x:v>102.9</x:v>
+        <x:v>102.8</x:v>
       </x:c>
       <x:c r="NQ17" s="3" t="n">
         <x:v>82</x:v>
@@ -18952,10 +19094,19 @@
       <x:c r="NT17" s="3" t="n">
         <x:v>106.2</x:v>
       </x:c>
+      <x:c r="NU17" s="3" t="n">
+        <x:v>106.5</x:v>
+      </x:c>
+      <x:c r="NV17" s="3" t="n">
+        <x:v>93.4</x:v>
+      </x:c>
+      <x:c r="NW17" s="3" t="n">
+        <x:v>97.1</x:v>
+      </x:c>
     </x:row>
-    <x:row r="18" spans="1:384">
+    <x:row r="18" spans="1:387">
       <x:c r="B18" s="2" t="s">
-        <x:v>386</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="C18" s="3" t="n">
         <x:v>96.9</x:v>
@@ -20103,13 +20254,22 @@
       <x:c r="NT18" s="3" t="n">
         <x:v>102.3</x:v>
       </x:c>
+      <x:c r="NU18" s="3" t="n">
+        <x:v>108.5</x:v>
+      </x:c>
+      <x:c r="NV18" s="3" t="n">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="NW18" s="3" t="n">
+        <x:v>93.6</x:v>
+      </x:c>
     </x:row>
-    <x:row r="19" spans="1:384">
+    <x:row r="19" spans="1:387">
       <x:c r="A19" s="2" t="s">
-        <x:v>391</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>384</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C19" s="3" t="n">
         <x:v>63</x:v>
@@ -21159,7 +21319,7 @@
         <x:v>68.2</x:v>
       </x:c>
       <x:c r="MN19" s="3" t="n">
-        <x:v>65.5</x:v>
+        <x:v>65.6</x:v>
       </x:c>
       <x:c r="MO19" s="3" t="n">
         <x:v>65.2</x:v>
@@ -21168,7 +21328,7 @@
         <x:v>65.6</x:v>
       </x:c>
       <x:c r="MQ19" s="3" t="n">
-        <x:v>64.8</x:v>
+        <x:v>64.7</x:v>
       </x:c>
       <x:c r="MR19" s="3" t="n">
         <x:v>64</x:v>
@@ -21180,16 +21340,16 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="MU19" s="3" t="n">
-        <x:v>61</x:v>
+        <x:v>60.9</x:v>
       </x:c>
       <x:c r="MV19" s="3" t="n">
-        <x:v>65.5</x:v>
+        <x:v>65.4</x:v>
       </x:c>
       <x:c r="MW19" s="3" t="n">
-        <x:v>70</x:v>
+        <x:v>69.8</x:v>
       </x:c>
       <x:c r="MX19" s="3" t="n">
-        <x:v>70.4</x:v>
+        <x:v>70.6</x:v>
       </x:c>
       <x:c r="MY19" s="3" t="n">
         <x:v>68.9</x:v>
@@ -21198,13 +21358,13 @@
         <x:v>71.4</x:v>
       </x:c>
       <x:c r="NA19" s="3" t="n">
-        <x:v>74.3</x:v>
+        <x:v>74.4</x:v>
       </x:c>
       <x:c r="NB19" s="3" t="n">
         <x:v>74.5</x:v>
       </x:c>
       <x:c r="NC19" s="3" t="n">
-        <x:v>78.2</x:v>
+        <x:v>78.1</x:v>
       </x:c>
       <x:c r="ND19" s="3" t="n">
         <x:v>72.5</x:v>
@@ -21219,19 +21379,19 @@
         <x:v>73.5</x:v>
       </x:c>
       <x:c r="NH19" s="3" t="n">
-        <x:v>68.2</x:v>
+        <x:v>68.1</x:v>
       </x:c>
       <x:c r="NI19" s="3" t="n">
-        <x:v>71.5</x:v>
+        <x:v>71.2</x:v>
       </x:c>
       <x:c r="NJ19" s="3" t="n">
-        <x:v>72.5</x:v>
+        <x:v>72.6</x:v>
       </x:c>
       <x:c r="NK19" s="3" t="n">
-        <x:v>73.7</x:v>
+        <x:v>73.8</x:v>
       </x:c>
       <x:c r="NL19" s="3" t="n">
-        <x:v>71.9</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="NM19" s="3" t="n">
         <x:v>72</x:v>
@@ -21255,12 +21415,21 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="NT19" s="3" t="n">
-        <x:v>75.8</x:v>
+        <x:v>75.7</x:v>
+      </x:c>
+      <x:c r="NU19" s="3" t="n">
+        <x:v>71.6</x:v>
+      </x:c>
+      <x:c r="NV19" s="3" t="n">
+        <x:v>73.9</x:v>
+      </x:c>
+      <x:c r="NW19" s="3" t="n">
+        <x:v>71</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:384">
+    <x:row r="20" spans="1:387">
       <x:c r="B20" s="2" t="s">
-        <x:v>385</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="C20" s="3" t="n">
         <x:v>69.2</x:v>
@@ -22408,10 +22577,19 @@
       <x:c r="NT20" s="3" t="n">
         <x:v>78.5</x:v>
       </x:c>
+      <x:c r="NU20" s="3" t="n">
+        <x:v>75.3</x:v>
+      </x:c>
+      <x:c r="NV20" s="3" t="n">
+        <x:v>80.1</x:v>
+      </x:c>
+      <x:c r="NW20" s="3" t="n">
+        <x:v>79.2</x:v>
+      </x:c>
     </x:row>
-    <x:row r="21" spans="1:384">
+    <x:row r="21" spans="1:387">
       <x:c r="B21" s="2" t="s">
-        <x:v>386</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="C21" s="3" t="n">
         <x:v>69.4</x:v>
@@ -23559,273 +23737,291 @@
       <x:c r="NT21" s="3" t="n">
         <x:v>78.2</x:v>
       </x:c>
+      <x:c r="NU21" s="3" t="n">
+        <x:v>75.5</x:v>
+      </x:c>
+      <x:c r="NV21" s="3" t="n">
+        <x:v>82.9</x:v>
+      </x:c>
+      <x:c r="NW21" s="3" t="n">
+        <x:v>78.7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="23" spans="1:384">
+    <x:row r="23" spans="1:387">
       <x:c r="A23" s="4" t="s">
-        <x:v>392</x:v>
+        <x:v>395</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:384">
-      <x:c r="A25" s="0" t="s">
-        <x:v>393</x:v>
+    <x:row r="24" spans="1:387">
+      <x:c r="A24" s="4" t="s">
+        <x:v>396</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:384">
+    <x:row r="26" spans="1:387">
       <x:c r="A26" s="0" t="s">
-        <x:v>394</x:v>
+        <x:v>397</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:384">
+    <x:row r="27" spans="1:387">
       <x:c r="A27" s="0" t="s">
-        <x:v>395</x:v>
+        <x:v>398</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:384">
+    <x:row r="28" spans="1:387">
       <x:c r="A28" s="0" t="s">
-        <x:v>396</x:v>
+        <x:v>399</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:384">
+    <x:row r="29" spans="1:387">
       <x:c r="A29" s="0" t="s">
-        <x:v>395</x:v>
+        <x:v>400</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:384">
+    <x:row r="30" spans="1:387">
       <x:c r="A30" s="0" t="s">
-        <x:v>397</x:v>
+        <x:v>399</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:384">
+    <x:row r="31" spans="1:387">
       <x:c r="A31" s="0" t="s">
-        <x:v>395</x:v>
+        <x:v>401</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:384">
-      <x:c r="A33" s="0" t="s">
+    <x:row r="32" spans="1:387">
+      <x:c r="A32" s="0" t="s">
+        <x:v>399</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:387">
+      <x:c r="A34" s="0" t="s">
+        <x:v>402</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:387">
+      <x:c r="A35" s="0" t="s">
+        <x:v>403</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:387">
+      <x:c r="A37" s="0" t="s">
+        <x:v>404</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:387">
+      <x:c r="A38" s="0" t="s">
         <x:v>398</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:384">
-      <x:c r="A34" s="0" t="s">
-        <x:v>399</x:v>
+    <x:row r="39" spans="1:387">
+      <x:c r="A39" s="0" t="s">
+        <x:v>405</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:384">
-      <x:c r="A36" s="0" t="s">
+    <x:row r="40" spans="1:387">
+      <x:c r="A40" s="0" t="s">
+        <x:v>406</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:387">
+      <x:c r="A41" s="0" t="s">
+        <x:v>407</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:387">
+      <x:c r="A45" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:387">
+      <x:c r="A47" s="0" t="s">
+        <x:v>409</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:387">
+      <x:c r="A48" s="0" t="s">
+        <x:v>398</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:387">
+      <x:c r="A49" s="0" t="s">
+        <x:v>410</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:387">
+      <x:c r="A50" s="0" t="s">
         <x:v>400</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:384">
-      <x:c r="A37" s="0" t="s">
-        <x:v>394</x:v>
+    <x:row r="51" spans="1:387">
+      <x:c r="A51" s="0" t="s">
+        <x:v>410</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:384">
-      <x:c r="A38" s="0" t="s">
+    <x:row r="52" spans="1:387">
+      <x:c r="A52" s="0" t="s">
         <x:v>401</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:384">
-      <x:c r="A39" s="0" t="s">
-        <x:v>402</x:v>
+    <x:row r="53" spans="1:387">
+      <x:c r="A53" s="0" t="s">
+        <x:v>410</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:384">
-      <x:c r="A40" s="0" t="s">
-        <x:v>403</x:v>
+    <x:row r="54" spans="1:387">
+      <x:c r="A54" s="0" t="s">
+        <x:v>411</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:384">
-      <x:c r="A44" s="0" t="s">
-        <x:v>404</x:v>
+    <x:row r="55" spans="1:387">
+      <x:c r="A55" s="0" t="s">
+        <x:v>398</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:384">
-      <x:c r="A46" s="0" t="s">
-        <x:v>405</x:v>
+    <x:row r="56" spans="1:387">
+      <x:c r="A56" s="0" t="s">
+        <x:v>412</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:384">
-      <x:c r="A47" s="0" t="s">
-        <x:v>394</x:v>
+    <x:row r="57" spans="1:387">
+      <x:c r="A57" s="0" t="s">
+        <x:v>400</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:384">
-      <x:c r="A48" s="0" t="s">
-        <x:v>406</x:v>
+    <x:row r="58" spans="1:387">
+      <x:c r="A58" s="0" t="s">
+        <x:v>412</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:384">
-      <x:c r="A49" s="0" t="s">
-        <x:v>396</x:v>
+    <x:row r="59" spans="1:387">
+      <x:c r="A59" s="0" t="s">
+        <x:v>401</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:384">
-      <x:c r="A50" s="0" t="s">
-        <x:v>406</x:v>
+    <x:row r="60" spans="1:387">
+      <x:c r="A60" s="0" t="s">
+        <x:v>412</x:v>
       </x:c>
     </x:row>
-    <x:row r="51" spans="1:384">
-      <x:c r="A51" s="0" t="s">
-        <x:v>397</x:v>
+    <x:row r="62" spans="1:387">
+      <x:c r="A62" s="0" t="s">
+        <x:v>413</x:v>
       </x:c>
     </x:row>
-    <x:row r="52" spans="1:384">
-      <x:c r="A52" s="0" t="s">
-        <x:v>406</x:v>
+    <x:row r="63" spans="1:387">
+      <x:c r="A63" s="0" t="s">
+        <x:v>387</x:v>
       </x:c>
     </x:row>
-    <x:row r="53" spans="1:384">
-      <x:c r="A53" s="0" t="s">
-        <x:v>407</x:v>
+    <x:row r="64" spans="1:387">
+      <x:c r="A64" s="0" t="s">
+        <x:v>414</x:v>
       </x:c>
     </x:row>
-    <x:row r="54" spans="1:384">
-      <x:c r="A54" s="0" t="s">
-        <x:v>394</x:v>
+    <x:row r="65" spans="1:387">
+      <x:c r="A65" s="0" t="s">
+        <x:v>388</x:v>
       </x:c>
     </x:row>
-    <x:row r="55" spans="1:384">
-      <x:c r="A55" s="0" t="s">
-        <x:v>408</x:v>
+    <x:row r="66" spans="1:387">
+      <x:c r="A66" s="0" t="s">
+        <x:v>414</x:v>
       </x:c>
     </x:row>
-    <x:row r="56" spans="1:384">
-      <x:c r="A56" s="0" t="s">
-        <x:v>396</x:v>
+    <x:row r="67" spans="1:387">
+      <x:c r="A67" s="0" t="s">
+        <x:v>389</x:v>
       </x:c>
     </x:row>
-    <x:row r="57" spans="1:384">
-      <x:c r="A57" s="0" t="s">
-        <x:v>408</x:v>
+    <x:row r="68" spans="1:387">
+      <x:c r="A68" s="0" t="s">
+        <x:v>414</x:v>
       </x:c>
     </x:row>
-    <x:row r="58" spans="1:384">
-      <x:c r="A58" s="0" t="s">
-        <x:v>397</x:v>
+    <x:row r="70" spans="1:387">
+      <x:c r="A70" s="0" t="s">
+        <x:v>398</x:v>
       </x:c>
     </x:row>
-    <x:row r="59" spans="1:384">
-      <x:c r="A59" s="0" t="s">
-        <x:v>408</x:v>
+    <x:row r="71" spans="1:387">
+      <x:c r="A71" s="0" t="s">
+        <x:v>415</x:v>
       </x:c>
     </x:row>
-    <x:row r="61" spans="1:384">
-      <x:c r="A61" s="0" t="s">
-        <x:v>409</x:v>
+    <x:row r="72" spans="1:387">
+      <x:c r="A72" s="0" t="s">
+        <x:v>400</x:v>
       </x:c>
     </x:row>
-    <x:row r="62" spans="1:384">
-      <x:c r="A62" s="0" t="s">
-        <x:v>384</x:v>
+    <x:row r="73" spans="1:387">
+      <x:c r="A73" s="0" t="s">
+        <x:v>415</x:v>
       </x:c>
     </x:row>
-    <x:row r="63" spans="1:384">
-      <x:c r="A63" s="0" t="s">
-        <x:v>410</x:v>
+    <x:row r="74" spans="1:387">
+      <x:c r="A74" s="0" t="s">
+        <x:v>401</x:v>
       </x:c>
     </x:row>
-    <x:row r="64" spans="1:384">
-      <x:c r="A64" s="0" t="s">
-        <x:v>385</x:v>
+    <x:row r="75" spans="1:387">
+      <x:c r="A75" s="0" t="s">
+        <x:v>415</x:v>
       </x:c>
     </x:row>
-    <x:row r="65" spans="1:384">
-      <x:c r="A65" s="0" t="s">
-        <x:v>410</x:v>
+    <x:row r="78" spans="1:387">
+      <x:c r="A78" s="0" t="s">
+        <x:v>398</x:v>
       </x:c>
     </x:row>
-    <x:row r="66" spans="1:384">
-      <x:c r="A66" s="0" t="s">
-        <x:v>386</x:v>
+    <x:row r="79" spans="1:387">
+      <x:c r="A79" s="0" t="s">
+        <x:v>416</x:v>
       </x:c>
     </x:row>
-    <x:row r="67" spans="1:384">
-      <x:c r="A67" s="0" t="s">
-        <x:v>410</x:v>
+    <x:row r="80" spans="1:387">
+      <x:c r="A80" s="0" t="s">
+        <x:v>400</x:v>
       </x:c>
     </x:row>
-    <x:row r="69" spans="1:384">
-      <x:c r="A69" s="0" t="s">
-        <x:v>394</x:v>
+    <x:row r="81" spans="1:387">
+      <x:c r="A81" s="0" t="s">
+        <x:v>416</x:v>
       </x:c>
     </x:row>
-    <x:row r="70" spans="1:384">
-      <x:c r="A70" s="0" t="s">
-        <x:v>411</x:v>
+    <x:row r="83" spans="1:387">
+      <x:c r="A83" s="0" t="s">
+        <x:v>398</x:v>
       </x:c>
     </x:row>
-    <x:row r="71" spans="1:384">
-      <x:c r="A71" s="0" t="s">
-        <x:v>396</x:v>
+    <x:row r="84" spans="1:387">
+      <x:c r="A84" s="0" t="s">
+        <x:v>417</x:v>
       </x:c>
     </x:row>
-    <x:row r="72" spans="1:384">
-      <x:c r="A72" s="0" t="s">
-        <x:v>411</x:v>
+    <x:row r="87" spans="1:387">
+      <x:c r="A87" s="0" t="s">
+        <x:v>418</x:v>
       </x:c>
     </x:row>
-    <x:row r="73" spans="1:384">
-      <x:c r="A73" s="0" t="s">
-        <x:v>397</x:v>
+    <x:row r="88" spans="1:387">
+      <x:c r="A88" s="0" t="s">
+        <x:v>419</x:v>
       </x:c>
     </x:row>
-    <x:row r="74" spans="1:384">
-      <x:c r="A74" s="0" t="s">
-        <x:v>411</x:v>
+    <x:row r="90" spans="1:387">
+      <x:c r="A90" s="0" t="s">
+        <x:v>420</x:v>
       </x:c>
     </x:row>
-    <x:row r="77" spans="1:384">
-      <x:c r="A77" s="0" t="s">
-        <x:v>394</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="78" spans="1:384">
-      <x:c r="A78" s="0" t="s">
-        <x:v>412</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="79" spans="1:384">
-      <x:c r="A79" s="0" t="s">
-        <x:v>396</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="80" spans="1:384">
-      <x:c r="A80" s="0" t="s">
-        <x:v>412</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="82" spans="1:384">
-      <x:c r="A82" s="0" t="s">
-        <x:v>394</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="83" spans="1:384">
-      <x:c r="A83" s="0" t="s">
-        <x:v>413</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="86" spans="1:384">
-      <x:c r="A86" s="0" t="s">
-        <x:v>414</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="87" spans="1:384">
-      <x:c r="A87" s="0" t="s">
-        <x:v>415</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="89" spans="1:384">
-      <x:c r="A89" s="0" t="s">
-        <x:v>416</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="90" spans="1:384">
-      <x:c r="A90" s="0" t="s">
-        <x:v>417</x:v>
+    <x:row r="91" spans="1:387">
+      <x:c r="A91" s="0" t="s">
+        <x:v>421</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:mergeCells count="2">
+    <x:mergeCell ref="A23:NW23"/>
+    <x:mergeCell ref="A24:NW24"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
